--- a/compliance/uk-official/three-tier-web-with-adds/Azure Blueprint Automation - Three-Tier Web Applications for UK-OFFICIAL - Principle Implementation Matrix .xlsx
+++ b/compliance/uk-official/three-tier-web-with-adds/Azure Blueprint Automation - Three-Tier Web Applications for UK-OFFICIAL - Principle Implementation Matrix .xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20040" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23916" windowHeight="8412" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="75">
   <si>
     <r>
       <t xml:space="preserve">           </t>
@@ -319,6 +319,12 @@
   </si>
   <si>
     <t>Yes - Partial</t>
+  </si>
+  <si>
+    <t>Yes - Inherited</t>
+  </si>
+  <si>
+    <t>Customers do not have physical access to any resources in Azure datacenters.</t>
   </si>
 </sst>
 </file>
@@ -921,7 +927,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -953,9 +959,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="110" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1038,9 +1044,11 @@
         <v>9</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="17"/>
+        <v>73</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="7" spans="1:4" s="6" customFormat="1" ht="150.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
@@ -1064,9 +1072,11 @@
         <v>14</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" s="17"/>
+        <v>73</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="9" spans="1:4" s="6" customFormat="1" ht="180.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
@@ -1076,7 +1086,7 @@
         <v>16</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D9" s="17"/>
     </row>
@@ -1100,7 +1110,7 @@
         <v>20</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D11" s="17"/>
     </row>
@@ -1112,7 +1122,7 @@
         <v>22</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D12" s="17"/>
     </row>
@@ -1531,18 +1541,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1565,14 +1575,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80DA1988-3EBA-40C1-AB4E-1ABA6B8C1E66}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFBD026C-7F7B-486C-9645-A4A57B24C3FC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="e099eaf9-2a58-49c7-8c12-c03817521853"/>
@@ -1587,4 +1589,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80DA1988-3EBA-40C1-AB4E-1ABA6B8C1E66}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/compliance/uk-official/three-tier-web-with-adds/Azure Blueprint Automation - Three-Tier Web Applications for UK-OFFICIAL - Principle Implementation Matrix .xlsx
+++ b/compliance/uk-official/three-tier-web-with-adds/Azure Blueprint Automation - Three-Tier Web Applications for UK-OFFICIAL - Principle Implementation Matrix .xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23916" windowHeight="8412" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23916" windowHeight="8412" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="2" r:id="rId1"/>
     <sheet name="Control Requirements" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Control Requirements'!$A$2:$B$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Control Requirements'!$A$2:$D$28</definedName>
   </definedNames>
   <calcPr calcId="171026"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="79">
   <si>
     <r>
       <t xml:space="preserve">           </t>
@@ -324,7 +324,19 @@
     <t>Yes - Inherited</t>
   </si>
   <si>
-    <t>Customers do not have physical access to any resources in Azure datacenters.</t>
+    <t>Customers do not have physical access to any system resources in Azure datacentres; datacentre security protection measures are implemented and managed by Microsoft Azure. This principle is inherited from Microsoft Azure.</t>
+  </si>
+  <si>
+    <t>Microsoft Azure provides contractual assurances regarding permanent data deletion in Azure. As such, this principle is inherited from Microsoft Azure.</t>
+  </si>
+  <si>
+    <t>Customers do not have physical access to any system resources in Azure datacentres; equipment disposal procedures are implemented and managed by Microsoft Azure. This principle is inherited from Microsoft Azure.</t>
+  </si>
+  <si>
+    <t>Microsoft Azure ensures isolation for each consumer to prevent one malicious or compromised consumer from affecting the service or data of another. As such, this principle is inherited from Microsoft Azure.</t>
+  </si>
+  <si>
+    <t>Microsoft Azure maintains a documented security governance framework for Azure services. As such, this principle is inherited from Microsoft Azure.</t>
   </si>
 </sst>
 </file>
@@ -927,9 +939,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -959,9 +971,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="110" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="110" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1075,7 +1087,7 @@
         <v>73</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="6" customFormat="1" ht="180.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1088,7 +1100,9 @@
       <c r="C9" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="D9" s="17"/>
+      <c r="D9" s="17" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="10" spans="1:4" s="6" customFormat="1" ht="136.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
@@ -1112,7 +1126,9 @@
       <c r="C11" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="D11" s="17"/>
+      <c r="D11" s="17" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="12" spans="1:4" s="6" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
@@ -1124,7 +1140,9 @@
       <c r="C12" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="D12" s="17"/>
+      <c r="D12" s="17" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="13" spans="1:4" s="6" customFormat="1" ht="238.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
@@ -1336,7 +1354,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:B28" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="A2:D28" xr:uid="{ECA8A38A-135D-4874-97BC-9BF3E7AA1B70}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -1541,18 +1559,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1575,6 +1593,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80DA1988-3EBA-40C1-AB4E-1ABA6B8C1E66}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFBD026C-7F7B-486C-9645-A4A57B24C3FC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="e099eaf9-2a58-49c7-8c12-c03817521853"/>
@@ -1589,12 +1615,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80DA1988-3EBA-40C1-AB4E-1ABA6B8C1E66}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>